--- a/biology/Botanique/Cardère_velue/Cardère_velue.xlsx
+++ b/biology/Botanique/Cardère_velue/Cardère_velue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_velue</t>
+          <t>Cardère_velue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dipsacus pilosus
 La Cardère velue ou Cardère poilue (Dipsacus pilosus) est une espèce de plante herbacée de la famille des Dipsacaceae. Elle est aussi appelée « Verge à pasteur ».
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_velue</t>
+          <t>Cardère_velue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son feuillage est en rosette la première année, à tige fleurie l'année suivante. Les feuilles sont alors poilues, courtement pétiolées, généralement divisées en 3 segments inégaux, plus ou moins dentés, les latéraux petits en forme d'oreillettes. La tige est rigide, haute de 70 à 150 cm, pourvue d'aiguillons plus ou moins piquants, parsemée de soies et généralement rameuse.
 Ses fleurs sont blanches, en capitules subsphériques longs de 1,5-2,5 cm, à corolle en tube (5 à 7 mm) terminé par quatre lobes courts à quatre étamines saillantes. Elle fleurit de juin à septembre.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Card%C3%A8re_velue</t>
+          <t>Cardère_velue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle croît en lieux souvent humides : forêts ouvertes, haies, bords de rivière, bords des chemins, décombres.
 </t>
